--- a/reverseprimer-v3_06.xlsx
+++ b/reverseprimer-v3_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_06" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0481-CACTTCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTTCTTCGGTCTCGTGGGCTCGG</t>
+    <t>R0481-TCCTGTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0482-CCTTCACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCACCTTGTCTCGTGGGCTCGG</t>
+    <t>R0482-CAAGAAGCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAAGCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0483-TAGTTCGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTTCGTACGTCTCGTGGGCTCGG</t>
+    <t>R0483-GAGTCTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCTACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0484-CATCATCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCATCAGGGTCTCGTGGGCTCGG</t>
+    <t>R0484-GGTCATGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCATGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0485-GTTGTGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGACAAGTCTCGTGGGCTCGG</t>
+    <t>R0485-ACGAGAAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGAAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0486-TACCTACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTACCATGTCTCGTGGGCTCGG</t>
+    <t>R0486-GTAGAGCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAGCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0487-CTTGGTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGGTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R0487-AGTAGGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGGTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0488-CTCAGAACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGAACCAGTCTCGTGGGCTCGG</t>
+    <t>R0488-ACACCAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0489-GTGTGTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTCACAGTCTCGTGGGCTCGG</t>
+    <t>R0489-GACACACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0490-TAGAGACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGACACTGTCTCGTGGGCTCGG</t>
+    <t>R0490-CGACTGTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACTGTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0491-GGTTCAACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTCAACTGGTCTCGTGGGCTCGG</t>
+    <t>R0491-AACAGACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0492-CGTTGAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGAAGACGTCTCGTGGGCTCGG</t>
+    <t>R0492-TGGAGTGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGTGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0493-AACACAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACAGACTGTCTCGTGGGCTCGG</t>
+    <t>R0493-AGAAGACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R0494-TAGCAACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAACTACGTCTCGTGGGCTCGG</t>
+    <t>R0494-TGAAGTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGTTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R0495-TCTTGGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGGTTCGGTCTCGTGGGCTCGG</t>
+    <t>R0495-TGCTCCATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCCATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R0496-CACTGATCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGATCAAGTCTCGTGGGCTCGG</t>
+    <t>R0496-CTGAGTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGTGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R0497-ACAGTCCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTCCAACGTCTCGTGGGCTCGG</t>
+    <t>R0497-TCTCTGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R0498-TTCACGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACGAAGAGTCTCGTGGGCTCGG</t>
+    <t>R0498-ACAACTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R0499-CCTAGCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGCAACTGTCTCGTGGGCTCGG</t>
+    <t>R0499-AACAGAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R0500-AGTCGAAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCGAAGATGTCTCGTGGGCTCGG</t>
+    <t>R0500-ACTGCAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R0501-CCAAGATGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAAGATGTAGTCTCGTGGGCTCGG</t>
+    <t>R0501-TTGTCTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R0502-GATCACGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCACGAACGTCTCGTGGGCTCGG</t>
+    <t>R0502-GTGACTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGACTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R0503-GAAGTAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTAGGTAGTCTCGTGGGCTCGG</t>
+    <t>R0503-TCCTAGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTAGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R0504-CTTGACAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGACAAGGGTCTCGTGGGCTCGG</t>
+    <t>R0504-GTAGGAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R0505-ACGTGCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTGCTCATGTCTCGTGGGCTCGG</t>
+    <t>R0505-CTTGTCACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGTCACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R0506-TTCATCGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCATCGATCGTCTCGTGGGCTCGG</t>
+    <t>R0506-TAGTGCTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGCTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R0507-CTCAAGAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGAGCAGTCTCGTGGGCTCGG</t>
+    <t>R0507-AACTGAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGAACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R0508-CAACTCGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTCGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0508-AGTCAGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R0509-ACACTCCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTCCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0509-CTCTAGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTAGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R0510-TACCTCCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTCCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0510-ACATGGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R0511-CTGGTTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGGTTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R0511-TTCCTCTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R0512-TGTTCTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0512-ACAAGACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGACTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0513-TGAACTTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACTTCGTGTCTCGTGGGCTCGG</t>
+    <t>R0513-CGTACAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTACAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0514-TGTACGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACGTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0514-CAGTCACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTCACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0515-GAGTTCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCTCTTGTCTCGTGGGCTCGG</t>
+    <t>R0515-CTCTTCTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTTCTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0516-AACTAGGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTAGGTCGGTCTCGTGGGCTCGG</t>
+    <t>R0516-TCTAGCTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGCTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0517-GTACAGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAGTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0517-CTCTCTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCTAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0518-CTTGAGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGAACCGTCTCGTGGGCTCGG</t>
+    <t>R0518-GATCCTTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCTTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0519-GTACTCCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTCCAGTGTCTCGTGGGCTCGG</t>
+    <t>R0519-TCTGTAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0520-TGATGCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGCTCATGTCTCGTGGGCTCGG</t>
+    <t>R0520-CAGTTGTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTTGTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R0521-CCATGTTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATGTTCAAGTCTCGTGGGCTCGG</t>
+    <t>R0521-ATCGTGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R0522-ACAGGATCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGATCTAGTCTCGTGGGCTCGG</t>
+    <t>R0522-GTCATCAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATCAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0523-CTTGACCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGACCACTGTCTCGTGGGCTCGG</t>
+    <t>R0523-ATGCTACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTACATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0524-TACTACTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTACTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0524-CAACACCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACACCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0525-TGCTCTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCTCATCGTCTCGTGGGCTCGG</t>
+    <t>R0525-AGAACTCACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACTCACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0526-TAGTGCTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGCTGGAGTCTCGTGGGCTCGG</t>
+    <t>R0526-ACGTTCTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTTCTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0527-TTGACACCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACACCACGTCTCGTGGGCTCGG</t>
+    <t>R0527-GGAACTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACTAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0528-GATCAACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCAACATCGTCTCGTGGGCTCGG</t>
+    <t>R0528-GAGTCAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0529-GCATGATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGATGAGGTCTCGTGGGCTCGG</t>
+    <t>R0529-GTACAGGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAGGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0530-ACCAGCTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAGCTACTGTCTCGTGGGCTCGG</t>
+    <t>R0530-TTGCTCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0531-AGGTGTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTGTCTTCGTCTCGTGGGCTCGG</t>
+    <t>R0531-GCTACGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0532-AGAACCTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACCTGGAGTCTCGTGGGCTCGG</t>
+    <t>R0532-GGTAGTAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGTAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0533-GCTCACAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCACAAGTGTCTCGTGGGCTCGG</t>
+    <t>R0533-ACAAGTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R0534-ACGTCAACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCAACAAGTCTCGTGGGCTCGG</t>
+    <t>R0534-ACATGGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R0535-TTGTCTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCTGTACGTCTCGTGGGCTCGG</t>
+    <t>R0535-AGTTCAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCAGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0536-GGAGATCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGATCAAGGTCTCGTGGGCTCGG</t>
+    <t>R0536-AACAGTCGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTCGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0537-AACTCCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCCTAGGGTCTCGTGGGCTCGG</t>
+    <t>R0537-GACACTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACTGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0538-TCAGACTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGACTCAAGTCTCGTGGGCTCGG</t>
+    <t>R0538-AGGTGACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGACTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0539-TGCAACGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAACGTGTGTCTCGTGGGCTCGG</t>
+    <t>R0539-ACTCACACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCACACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0540-TGTGAGCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGAGCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0540-GCTCAACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCAACTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0541-AACACGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R0541-TGATGCAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGCAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R0542-AACGACGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGACGAACGTCTCGTGGGCTCGG</t>
+    <t>R0542-GTGAACAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAACAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R0543-AGTCACCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCACCTACGTCTCGTGGGCTCGG</t>
+    <t>R0543-TAGGTACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTACGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R0544-ACCATCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATCAACGGTCTCGTGGGCTCGG</t>
+    <t>R0544-ACCACAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0545-TCAGGTTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGGTTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0545-ACGAAGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAAGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0546-CGATGCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATGCACAAGTCTCGTGGGCTCGG</t>
+    <t>R0546-ACTCGATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCGATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0547-GGATGGTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGGTTGAGTCTCGTGGGCTCGG</t>
+    <t>R0547-GCATGATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0548-TACAGAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGAGTCGGTCTCGTGGGCTCGG</t>
+    <t>R0548-ATGAACTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAACTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0549-GTGTCGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCGTAGAGTCTCGTGGGCTCGG</t>
+    <t>R0549-GAAGTCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0550-GAAGTAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTAGAACGTCTCGTGGGCTCGG</t>
+    <t>R0550-GTCATCCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATCCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0551-AGCTAGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTAGTCCAGTCTCGTGGGCTCGG</t>
+    <t>R0551-CTGGACTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGGACTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0552-ACCAGACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAGACCATGTCTCGTGGGCTCGG</t>
+    <t>R0552-AGCTGTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0553-GCTTCAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTCAACCTGTCTCGTGGGCTCGG</t>
+    <t>R0553-ATGTGCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGCAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0554-CATGAAGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGAAGTGGGTCTCGTGGGCTCGG</t>
+    <t>R0554-TTCAGCATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGCATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0555-GACGTTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGTTCAGAGTCTCGTGGGCTCGG</t>
+    <t>R0555-ATGATGGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGATGGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0556-GTGTACATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTACATCCGTCTCGTGGGCTCGG</t>
+    <t>R0556-TAGGTTGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0557-TGACCTTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCTTGTGGTCTCGTGGGCTCGG</t>
+    <t>R0557-CCACATGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACATGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0558-TCACTCGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCGTAGGTCTCGTGGGCTCGG</t>
+    <t>R0558-GAGATGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGATGGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0559-TCAAGCAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCAGCAGTCTCGTGGGCTCGG</t>
+    <t>R0559-GCAGTAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGTAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0560-GATCCAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCAACGTGTCTCGTGGGCTCGG</t>
+    <t>R0560-TGTCATCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCATCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0561-AGACTCAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTCAGCAGTCTCGTGGGCTCGG</t>
+    <t>R0561-AGTCCATCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCCATCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0562-CACAACGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAACGATGGTCTCGTGGGCTCGG</t>
+    <t>R0562-ACTGTCTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTCTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0563-TGTAGACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGACAGTGTCTCGTGGGCTCGG</t>
+    <t>R0563-ACACCAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCAACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0564-CGATGAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATGAAGGTGTCTCGTGGGCTCGG</t>
+    <t>R0564-GGTCGTACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCGTACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0565-ATGGACCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGACCATGGTCTCGTGGGCTCGG</t>
+    <t>R0565-GACAGGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAGGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0566-GTTCGTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTCGTAGTCTCGTGGGCTCGG</t>
+    <t>R0566-CGTGTGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGTGAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0567-ACACTCTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTCTCGTGTCTCGTGGGCTCGG</t>
+    <t>R0567-TTGTGAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTGAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0568-ACAACCAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACCAGACGTCTCGTGGGCTCGG</t>
+    <t>R0568-AAGGTTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTTCCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0569-TGTGTGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTGAGCTGTCTCGTGGGCTCGG</t>
+    <t>R0569-TGTAGTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTAGTTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0570-TCAAGACAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGACAGGGTCTCGTGGGCTCGG</t>
+    <t>R0570-GCATCTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCTCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0571-GCAAGATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGATCTCGTCTCGTGGGCTCGG</t>
+    <t>R0571-AGGTCAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0572-AGAGACCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0572-ATGCTTGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTTGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0573-CAAGCTACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTACTCGTCTCGTGGGCTCGG</t>
+    <t>R0573-AGGAAGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0574-ATCACTTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACTTGGAGTCTCGTGGGCTCGG</t>
+    <t>R0574-CAACTCACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTCACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0575-TGGAGCTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAGCTACTGTCTCGTGGGCTCGG</t>
+    <t>R0575-AGAAGCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0576-AGAGAACGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAACGTGGTCTCGTGGGCTCGG</t>
+    <t>R0576-CTAGGAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGGAGTCTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
